--- a/Final_Design/WingBox_Analysis/testdata.xlsx
+++ b/Final_Design/WingBox_Analysis/testdata.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273b60a69ebe275f/Desktop/SMM/Final_Design/WingBox_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D101E9AD-D05C-4309-AEE2-42DA54050863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{D101E9AD-D05C-4309-AEE2-42DA54050863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBFD2CF4-30F9-4B8F-ABC6-1E523E9605C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesdata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,9 +501,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -855,10 +859,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1750,7 +1756,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>1.996</v>
       </c>
       <c r="C81" s="1">
@@ -1761,7 +1767,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>1.9970000000000001</v>
       </c>
       <c r="C82" s="1">
@@ -1772,7 +1778,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>1.9970000000000001</v>
       </c>
       <c r="C83" s="1">
